--- a/04_CPlusPlus_DataStructures/005 动态绑定 多态性.xlsx
+++ b/04_CPlusPlus_DataStructures/005 动态绑定 多态性.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus_DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0B599-5C71-42E1-BD4D-7464DE70ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1641F-ABD2-42AB-8D62-795331CB1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="虚析构函数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -955,7 +956,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5489580" cy="2291012"/>
+    <xdr:ext cx="5489580" cy="3036472"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3">
@@ -970,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="320040" y="220980"/>
-          <a:ext cx="5489580" cy="2291012"/>
+          <a:ext cx="5489580" cy="3036472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,10 +1039,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>：指的是在运行时能够以统一的方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1050,10 +1051,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>指的是在运行时能够以统一的方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1065,7 +1078,7 @@
             <a:t>基类的指针或引用</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1077,7 +1090,7 @@
             <a:t>)</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1088,13 +1101,13 @@
             </a:rPr>
             <a:t>使用不同类型的对象，</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1105,13 +1118,13 @@
             </a:rPr>
             <a:t>并且能够表现出针对不同对象类型的不同行为。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1122,8 +1135,19 @@
             </a:rPr>
             <a:t>多态性允许 基类的指针或引用 在不同情况下表现出不同子类的行为。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
             <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1138,7 +1162,106 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>动态绑定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是一种在 运行时确定要调用的函数实现的机制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在多态性中，通过将基类的成员函数声明为虚函数，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>派生类可以覆盖这些虚函数，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使得在运行时能够根据对象的实际类型来调用正确的函数。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1149,20 +1272,122 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>虚析构函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基类定义 虚析构函数即可</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：在释放不同子类对象时，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以根据对象实际类型调用正确的析构函数，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>而且是从子类 往上 依次调用父类的析构函数。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>动态绑定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1171,94 +1396,972 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>是一种在 运行时确定要调用的函数实现的机制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>。</a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>在多态性中，通过将基类的成员函数声明为虚函数，</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>派生类可以覆盖这些虚函数，</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>使得在运行时能够根据对象的实际类型来调用正确的函数。</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4288225" cy="13065885"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED899CC-6AE9-A6EF-A8A4-A214A0EB4384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754380" y="350520"/>
+          <a:ext cx="4288225" cy="13065885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include &lt;iostream&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include &lt;vector&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>#include &lt;iomanip&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>using namespace std;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class People {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int a;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>void playa()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; hex &lt;&lt; a &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>People()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = 0x100;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual void paly() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "people ,this:" &lt;&lt; hex &lt;&lt; this &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual ~People()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "delete people" &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Man :public People {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int a;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Man()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = 0x200;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual void paly() override {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "man ,this:" &lt;&lt; hex &lt;&lt; this &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual ~Man()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "delete man" &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>class Boy :public Man {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int a;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Boy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a = 0x300;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual void paly() override {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "boy ,this:" &lt;&lt; hex &lt;&lt; this &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>virtual ~Boy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cout &lt;&lt; "delete boy" &lt;&lt; endl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int main()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>People* (*arr) = new People*[3]{ new People(),new Man(), new Boy() };</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/*</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>虚析构函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基类定义 虚析构函数即可</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，在释放不同子类对象时，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以根据对象实际类型调用正确的析构函数，</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>而且是从子类 往上 依次调用父类的析构函数。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1270,15 +2373,104 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>/</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delete arr[0];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delete arr[1];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delete arr[2];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1557,7 +2749,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1566,4 +2758,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C08AF-B05B-4146-9D11-81F87193952A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>